--- a/SchedulingData/dynamic16/pso/scheduling2_11.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>256.98</v>
+        <v>243.66</v>
       </c>
       <c r="D2" t="n">
-        <v>316.96</v>
+        <v>287.78</v>
       </c>
       <c r="E2" t="n">
-        <v>11.964</v>
+        <v>12.892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>257.92</v>
+        <v>240.9</v>
       </c>
       <c r="D3" t="n">
-        <v>306.62</v>
+        <v>309</v>
       </c>
       <c r="E3" t="n">
-        <v>10.168</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="4">
@@ -504,397 +504,397 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>316.96</v>
+        <v>309</v>
       </c>
       <c r="D4" t="n">
-        <v>367.56</v>
+        <v>365.4</v>
       </c>
       <c r="E4" t="n">
-        <v>7.544</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>306.62</v>
+        <v>213.76</v>
       </c>
       <c r="D5" t="n">
-        <v>377.34</v>
+        <v>285.22</v>
       </c>
       <c r="E5" t="n">
-        <v>5.696</v>
+        <v>13.468</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>377.34</v>
+        <v>210.28</v>
       </c>
       <c r="D6" t="n">
-        <v>429.74</v>
+        <v>264.74</v>
       </c>
       <c r="E6" t="n">
-        <v>3.056</v>
+        <v>13.676</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>429.74</v>
+        <v>285.22</v>
       </c>
       <c r="D7" t="n">
-        <v>524.9299999999999</v>
+        <v>326.76</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>10.444</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>524.9299999999999</v>
+        <v>287.78</v>
       </c>
       <c r="D8" t="n">
-        <v>589.39</v>
+        <v>358.7</v>
       </c>
       <c r="E8" t="n">
-        <v>25.744</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>226.26</v>
+        <v>326.76</v>
       </c>
       <c r="D9" t="n">
-        <v>292.36</v>
+        <v>364.52</v>
       </c>
       <c r="E9" t="n">
-        <v>10.464</v>
+        <v>7.308</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>292.36</v>
+        <v>364.52</v>
       </c>
       <c r="D10" t="n">
-        <v>351.56</v>
+        <v>448.42</v>
       </c>
       <c r="E10" t="n">
-        <v>7.164</v>
+        <v>2.508</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>215.84</v>
+        <v>213.1</v>
       </c>
       <c r="D11" t="n">
-        <v>278.56</v>
+        <v>262.48</v>
       </c>
       <c r="E11" t="n">
-        <v>12.324</v>
+        <v>14.252</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>203.54</v>
+        <v>264.74</v>
       </c>
       <c r="D12" t="n">
-        <v>246.68</v>
+        <v>319.92</v>
       </c>
       <c r="E12" t="n">
-        <v>15.892</v>
+        <v>9.788</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>351.56</v>
+        <v>245.72</v>
       </c>
       <c r="D13" t="n">
-        <v>460.46</v>
+        <v>328.82</v>
       </c>
       <c r="E13" t="n">
-        <v>2.364</v>
+        <v>13.668</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>204.48</v>
+        <v>319.92</v>
       </c>
       <c r="D14" t="n">
-        <v>277.3</v>
+        <v>395.64</v>
       </c>
       <c r="E14" t="n">
-        <v>13.42</v>
+        <v>5.316</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>278.56</v>
+        <v>328.82</v>
       </c>
       <c r="D15" t="n">
-        <v>342.78</v>
+        <v>394.12</v>
       </c>
       <c r="E15" t="n">
-        <v>8.012</v>
+        <v>9.247999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>246.68</v>
+        <v>395.64</v>
       </c>
       <c r="D16" t="n">
-        <v>298.54</v>
+        <v>460.52</v>
       </c>
       <c r="E16" t="n">
-        <v>11.836</v>
+        <v>1.428</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>298.54</v>
+        <v>460.52</v>
       </c>
       <c r="D17" t="n">
-        <v>359.08</v>
+        <v>544.26</v>
       </c>
       <c r="E17" t="n">
-        <v>7.412</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>367.56</v>
+        <v>448.42</v>
       </c>
       <c r="D18" t="n">
-        <v>421.2</v>
+        <v>525.3</v>
       </c>
       <c r="E18" t="n">
-        <v>3.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>421.2</v>
+        <v>525.3</v>
       </c>
       <c r="D19" t="n">
-        <v>477.56</v>
+        <v>574.66</v>
       </c>
       <c r="E19" t="n">
-        <v>0.764</v>
+        <v>27.244</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>477.56</v>
+        <v>262.48</v>
       </c>
       <c r="D20" t="n">
-        <v>577.4299999999999</v>
+        <v>305.98</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>11.532</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>277.3</v>
+        <v>574.66</v>
       </c>
       <c r="D21" t="n">
-        <v>329.7</v>
+        <v>636.16</v>
       </c>
       <c r="E21" t="n">
-        <v>9.82</v>
+        <v>23.704</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>577.4299999999999</v>
+        <v>358.7</v>
       </c>
       <c r="D22" t="n">
-        <v>644.23</v>
+        <v>406.3</v>
       </c>
       <c r="E22" t="n">
-        <v>25.98</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>329.7</v>
+        <v>544.26</v>
       </c>
       <c r="D23" t="n">
-        <v>389.68</v>
+        <v>613.86</v>
       </c>
       <c r="E23" t="n">
-        <v>5.932</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>460.46</v>
+        <v>305.98</v>
       </c>
       <c r="D24" t="n">
-        <v>537.63</v>
+        <v>371.74</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>8.076000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -903,98 +903,98 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>537.63</v>
+        <v>406.3</v>
       </c>
       <c r="D25" t="n">
-        <v>593.99</v>
+        <v>467.7</v>
       </c>
       <c r="E25" t="n">
-        <v>26.544</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>342.78</v>
+        <v>636.16</v>
       </c>
       <c r="D26" t="n">
-        <v>390.08</v>
+        <v>673.8</v>
       </c>
       <c r="E26" t="n">
-        <v>4.412</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>589.39</v>
+        <v>365.4</v>
       </c>
       <c r="D27" t="n">
-        <v>668.99</v>
+        <v>434.04</v>
       </c>
       <c r="E27" t="n">
-        <v>22.384</v>
+        <v>3.516</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>359.08</v>
+        <v>434.04</v>
       </c>
       <c r="D28" t="n">
-        <v>401.18</v>
+        <v>493.04</v>
       </c>
       <c r="E28" t="n">
-        <v>4.332</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>390.08</v>
+        <v>493.04</v>
       </c>
       <c r="D29" t="n">
-        <v>442.78</v>
+        <v>599.01</v>
       </c>
       <c r="E29" t="n">
-        <v>0.772</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>442.78</v>
+        <v>467.7</v>
       </c>
       <c r="D30" t="n">
-        <v>513.14</v>
+        <v>544.92</v>
       </c>
       <c r="E30" t="n">
         <v>30</v>
@@ -1013,59 +1013,59 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>401.18</v>
+        <v>544.92</v>
       </c>
       <c r="D31" t="n">
-        <v>442.72</v>
+        <v>606.28</v>
       </c>
       <c r="E31" t="n">
-        <v>1.308</v>
+        <v>26.544</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>442.72</v>
+        <v>371.74</v>
       </c>
       <c r="D32" t="n">
-        <v>541.5</v>
+        <v>413.82</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>5.008</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>541.5</v>
+        <v>394.12</v>
       </c>
       <c r="D33" t="n">
-        <v>608.4</v>
+        <v>479.56</v>
       </c>
       <c r="E33" t="n">
-        <v>26.46</v>
+        <v>4.824</v>
       </c>
     </row>
     <row r="34">
@@ -1074,17 +1074,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>593.99</v>
+        <v>606.28</v>
       </c>
       <c r="D34" t="n">
-        <v>642.95</v>
+        <v>670.78</v>
       </c>
       <c r="E34" t="n">
-        <v>23.788</v>
+        <v>23.684</v>
       </c>
     </row>
     <row r="35">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>513.14</v>
+        <v>613.86</v>
       </c>
       <c r="D35" t="n">
-        <v>555.12</v>
+        <v>673.3200000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>27.492</v>
+        <v>21.884</v>
       </c>
     </row>
     <row r="36">
@@ -1112,36 +1112,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>389.68</v>
+        <v>413.82</v>
       </c>
       <c r="D36" t="n">
-        <v>437.24</v>
+        <v>493.14</v>
       </c>
       <c r="E36" t="n">
-        <v>2.796</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>608.4</v>
+        <v>493.14</v>
       </c>
       <c r="D37" t="n">
-        <v>665</v>
+        <v>573.65</v>
       </c>
       <c r="E37" t="n">
-        <v>22.92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -1150,112 +1150,112 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>668.99</v>
+        <v>479.56</v>
       </c>
       <c r="D38" t="n">
-        <v>748.55</v>
+        <v>522.8</v>
       </c>
       <c r="E38" t="n">
-        <v>17.568</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>437.24</v>
+        <v>599.01</v>
       </c>
       <c r="D39" t="n">
-        <v>528.05</v>
+        <v>639.8099999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>528.05</v>
+        <v>639.8099999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>592.9299999999999</v>
+        <v>686.3099999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>26.192</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>555.12</v>
+        <v>522.8</v>
       </c>
       <c r="D41" t="n">
-        <v>629.52</v>
+        <v>614.92</v>
       </c>
       <c r="E41" t="n">
-        <v>24.632</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>642.95</v>
+        <v>614.92</v>
       </c>
       <c r="D42" t="n">
-        <v>700.55</v>
+        <v>685.42</v>
       </c>
       <c r="E42" t="n">
-        <v>21.148</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>629.52</v>
+        <v>686.3099999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>707.22</v>
+        <v>776.11</v>
       </c>
       <c r="E43" t="n">
-        <v>19.952</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="44">
@@ -1264,74 +1264,112 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>700.55</v>
+        <v>670.78</v>
       </c>
       <c r="D44" t="n">
-        <v>742.53</v>
+        <v>723.28</v>
       </c>
       <c r="E44" t="n">
-        <v>18.08</v>
+        <v>21.044</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>644.23</v>
+        <v>573.65</v>
       </c>
       <c r="D45" t="n">
-        <v>690.53</v>
+        <v>627.05</v>
       </c>
       <c r="E45" t="n">
-        <v>23.46</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>707.22</v>
+        <v>723.28</v>
       </c>
       <c r="D46" t="n">
-        <v>752.3200000000001</v>
+        <v>785.28</v>
       </c>
       <c r="E46" t="n">
-        <v>16.572</v>
+        <v>17.444</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>pond8</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>673.8</v>
+      </c>
+      <c r="D47" t="n">
+        <v>760.7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
         <v>6</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>pond27</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>592.9299999999999</v>
-      </c>
-      <c r="D47" t="n">
-        <v>640.23</v>
-      </c>
-      <c r="E47" t="n">
-        <v>24.072</v>
+      <c r="C48" t="n">
+        <v>627.05</v>
+      </c>
+      <c r="D48" t="n">
+        <v>689.15</v>
+      </c>
+      <c r="E48" t="n">
+        <v>24.24</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>pond18</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>673.3200000000001</v>
+      </c>
+      <c r="D49" t="n">
+        <v>734.26</v>
+      </c>
+      <c r="E49" t="n">
+        <v>18.92</v>
       </c>
     </row>
   </sheetData>
